--- a/ujian/New Microsoft Excel Worksheet.xlsx
+++ b/ujian/New Microsoft Excel Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\bahasa arab\kosakata\ujian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\mabaiz\bahasa arab\kosakata\ujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697D9806-69D6-4397-AAF0-D5B4067FB53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FAEF8C-1B39-42D3-8B9D-C953A524FD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pembagian" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>Muhammad Nizam Ghifari</t>
   </si>
   <si>
-    <t>Muhammad Nur Riski</t>
-  </si>
-  <si>
     <t>Nadil Al Fayyadh</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
   </si>
   <si>
     <t>Catatan</t>
-  </si>
-  <si>
-    <t>1. Waktu pelaksanaan adalah Sabtu, 31 Agustus 2024 hingga Ahad, 1 September 2024</t>
   </si>
   <si>
     <t>3. Ujiannya adalah 10 kalimat acak</t>
@@ -361,6 +355,12 @@
       </rPr>
       <t>Ustadzah Tamara</t>
     </r>
+  </si>
+  <si>
+    <t>Muhammad Rizky</t>
+  </si>
+  <si>
+    <t>1. Waktu pelaksanaan adalah Sabtu, 30 November 2024 hingga Ahad, 1 Desember 2024</t>
   </si>
 </sst>
 </file>
@@ -437,23 +437,23 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,43 +496,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -741,6 +704,37 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -779,6 +773,12 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,11 +1326,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0C1799CC-5D50-4AFC-ACBA-FA345C60984B}" name="Table5" displayName="Table5" ref="A5:B11" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0C1799CC-5D50-4AFC-ACBA-FA345C60984B}" name="Table5" displayName="Table5" ref="A5:B11" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A5:B11" xr:uid="{0C1799CC-5D50-4AFC-ACBA-FA345C60984B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DE5E4D83-1EB4-4EB1-84A2-ECDCE0B2CB83}" name="Nama" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{BEA1C33E-F417-4F1A-88F2-554B5BD879D1}" name="Nilai" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{DE5E4D83-1EB4-4EB1-84A2-ECDCE0B2CB83}" name="Nama" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{BEA1C33E-F417-4F1A-88F2-554B5BD879D1}" name="Nilai" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1340,8 +1340,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3EDE9285-D6C6-4B67-BE6A-D311AA4B6770}" name="Table57" displayName="Table57" ref="A5:B11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A5:B11" xr:uid="{0C1799CC-5D50-4AFC-ACBA-FA345C60984B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8174CED0-C6C3-4B6F-97AD-DF9FE95409BA}" name="Nama" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{6AF52E93-B129-47EA-ABCF-6423519493AA}" name="Nilai" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{8174CED0-C6C3-4B6F-97AD-DF9FE95409BA}" name="Nama" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{6AF52E93-B129-47EA-ABCF-6423519493AA}" name="Nilai" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1351,8 +1351,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{58963D0A-9E53-4633-AFE8-4B749C69EC04}" name="Table578" displayName="Table578" ref="A5:B11" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A5:B11" xr:uid="{0C1799CC-5D50-4AFC-ACBA-FA345C60984B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{441BC34B-CBDD-46DC-AADF-30EE24C1759E}" name="Nama" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{93143FBB-030C-4AB1-8351-CE74985D9AC1}" name="Nilai" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{441BC34B-CBDD-46DC-AADF-30EE24C1759E}" name="Nama" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{93143FBB-030C-4AB1-8351-CE74985D9AC1}" name="Nilai" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1362,8 +1362,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{71E1D620-EC80-419F-97C4-CB8FF56F8AC9}" name="Table5789" displayName="Table5789" ref="A5:B11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A5:B11" xr:uid="{0C1799CC-5D50-4AFC-ACBA-FA345C60984B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A53EAC29-6158-44F4-B45C-C37A91922B92}" name="Nama" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{68B9384A-DC62-4FCB-83DF-053178BDF460}" name="Nilai" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{A53EAC29-6158-44F4-B45C-C37A91922B92}" name="Nama" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{68B9384A-DC62-4FCB-83DF-053178BDF460}" name="Nilai" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1373,8 +1373,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{46FEA8FB-D55E-4C17-B5EA-D0898588E8B5}" name="Table578910" displayName="Table578910" ref="A5:B12" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A5:B12" xr:uid="{0C1799CC-5D50-4AFC-ACBA-FA345C60984B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A22FE2F0-7415-46CF-804B-988AEB412A74}" name="Nama" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{229EAEB1-D69B-46ED-A3A7-A4F6A1AA7F3E}" name="Nilai" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{A22FE2F0-7415-46CF-804B-988AEB412A74}" name="Nama" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{229EAEB1-D69B-46ED-A3A7-A4F6A1AA7F3E}" name="Nilai" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1384,8 +1384,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1D97C660-9863-449B-91E8-062FEA938706}" name="Table57891011" displayName="Table57891011" ref="A5:B10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A5:B10" xr:uid="{0C1799CC-5D50-4AFC-ACBA-FA345C60984B}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FD4D0C85-5B95-4CF3-8431-68222A414F48}" name="Nama" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{35858F81-B410-44A0-9E2B-3145DF34B11B}" name="Nilai" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{FD4D0C85-5B95-4CF3-8431-68222A414F48}" name="Nama" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{35858F81-B410-44A0-9E2B-3145DF34B11B}" name="Nilai" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1670,8 +1670,8 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,12 +1687,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1719,7 +1719,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,7 +1733,7 @@
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,7 +1747,7 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,7 +1761,7 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,7 +1789,7 @@
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1808,7 +1808,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1817,12 +1817,12 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1831,12 +1831,12 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1845,12 +1845,12 @@
         <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1859,12 +1859,12 @@
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
@@ -1873,12 +1873,12 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -1886,27 +1886,27 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1928,7 +1928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8788BC8-B602-4ACC-9E29-05306424AD63}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1939,159 +1939,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2122,159 +2122,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2305,159 +2305,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2488,159 +2488,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2661,7 +2661,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2671,161 +2671,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2856,141 +2856,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3021,143 +3021,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3188,133 +3188,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="2"/>
+      <c r="A1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/ujian/New Microsoft Excel Worksheet.xlsx
+++ b/ujian/New Microsoft Excel Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zen\mabaiz\bahasa arab\kosakata\ujian\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZEN-PROJECT\mabaiz\kosakata\ujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FAEF8C-1B39-42D3-8B9D-C953A524FD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1838A0-7D0D-4A1C-8972-CFF21D8D165C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pembagian" sheetId="1" r:id="rId1"/>
@@ -1671,7 +1671,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D12" sqref="D12:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
